--- a/data/2/graphs.xlsx
+++ b/data/2/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="140" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="8580" yWindow="1720" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,17 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>profiled</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -159,11 +149,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accumulated</a:t>
+              <a:t>Total</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Utilization for n Tasks</a:t>
+              <a:t> Utilization for N Tasks</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -208,13 +198,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>115.0</c:v>
+                  <c:v>0.288220551378446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>859.0</c:v>
+                  <c:v>2.126237623762376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112886.0</c:v>
+                  <c:v>54.14196642685852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -229,11 +219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="768356504"/>
-        <c:axId val="768361944"/>
+        <c:axId val="643371912"/>
+        <c:axId val="597031144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="768356504"/>
+        <c:axId val="643371912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,7 +252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="768361944"/>
+        <c:crossAx val="597031144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -270,7 +260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768361944"/>
+        <c:axId val="597031144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -288,7 +278,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Accumulated Utilization</a:t>
+                  <a:t>Total Utilization</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -300,7 +290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="768356504"/>
+        <c:crossAx val="643371912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -357,11 +347,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="profile3" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="profile2" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="profile2" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="profile3" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2086"/>
+  <dimension ref="A1:R2085"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,8 +739,8 @@
         <v>1</v>
       </c>
       <c r="R1">
-        <f>SUM(D:D)</f>
-        <v>115</v>
+        <f>SUM(D:D)/COUNTA(D:D)</f>
+        <v>0.2882205513784461</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -794,8 +784,8 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <f>SUM(I:I)</f>
-        <v>859</v>
+        <f>SUM(I:I)/COUNTA(I:I)</f>
+        <v>2.1262376237623761</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -839,8 +829,8 @@
         <v>11</v>
       </c>
       <c r="R3">
-        <f>SUM(N:N)</f>
-        <v>112886</v>
+        <f>SUM(N:N)/COUNTA(N:N)</f>
+        <v>54.141966426858517</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -15892,18 +15882,6 @@
       </c>
     </row>
     <row r="400" spans="1:14">
-      <c r="A400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B400">
-        <v>399</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1</v>
-      </c>
-      <c r="D400" t="s">
-        <v>2</v>
-      </c>
       <c r="F400">
         <v>4509327207</v>
       </c>
@@ -16034,18 +16012,6 @@
       </c>
     </row>
     <row r="405" spans="6:14">
-      <c r="F405" t="s">
-        <v>0</v>
-      </c>
-      <c r="G405">
-        <v>404</v>
-      </c>
-      <c r="H405" t="s">
-        <v>1</v>
-      </c>
-      <c r="I405" t="s">
-        <v>2</v>
-      </c>
       <c r="K405">
         <v>4509420981</v>
       </c>
@@ -39577,20 +39543,6 @@
       </c>
       <c r="N2085">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2086" spans="11:14">
-      <c r="K2086" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2086">
-        <v>2085</v>
-      </c>
-      <c r="M2086" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2086" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
